--- a/data/trans_bre/P1413-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1413-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.188294209476735</v>
+        <v>-2.580091548143686</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.848834543200556</v>
+        <v>8.069580971282901</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.759435618166179</v>
+        <v>3.755063874239258</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.529170303363547</v>
+        <v>7.077150905148713</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.09686890294752089</v>
+        <v>-0.1121377411081841</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7332177902495807</v>
+        <v>0.7644552190250213</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3345627305911198</v>
+        <v>0.3301551183015287</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1997825160261553</v>
+        <v>0.2179393394270681</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.280607678294259</v>
+        <v>6.219250150723313</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.82637834065551</v>
+        <v>14.37005055902942</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.494039239804433</v>
+        <v>9.445687721999919</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.30905621207301</v>
+        <v>17.63343444947549</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.342229634447321</v>
+        <v>0.3445050937421346</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.662096904605463</v>
+        <v>1.769966421130488</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.122815366454206</v>
+        <v>1.076933662381999</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6616427294327536</v>
+        <v>0.6950691703501539</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3161104989085671</v>
+        <v>0.3220318149619341</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.722208677973684</v>
+        <v>6.535467978818136</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.832264411869262</v>
+        <v>2.764890914605588</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.592054817602458</v>
+        <v>7.52702941979254</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01739808782354915</v>
+        <v>0.01826092813127143</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6037001426648674</v>
+        <v>0.5929262216210943</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2799416739624164</v>
+        <v>0.2642288253056569</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3403457853236291</v>
+        <v>0.3369199971239998</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.942596423663849</v>
+        <v>6.893980625034855</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.73944869801835</v>
+        <v>12.86048117355457</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.832817645815725</v>
+        <v>8.716661805163803</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14.8105319146868</v>
+        <v>14.60851502680986</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4602921421989626</v>
+        <v>0.4433569135438173</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.551566766335903</v>
+        <v>1.55370144473444</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.203770321150748</v>
+        <v>1.166437143707257</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8397433795013763</v>
+        <v>0.8305710744834713</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.7696674846527815</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.8728398060745294</v>
+        <v>0.8728398060745289</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.528396136704265</v>
+        <v>-0.3198334100920385</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.078590440963277</v>
+        <v>3.20680988300542</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.681635605072214</v>
+        <v>1.842742091221839</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9.145867425946021</v>
+        <v>8.788151198486982</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.03834093665143019</v>
+        <v>-0.02531458903383533</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3071488063375336</v>
+        <v>0.3088997153674553</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2395918341490161</v>
+        <v>0.2285017058300473</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.5510886005696519</v>
+        <v>0.5304824503099226</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.373236965672433</v>
+        <v>5.724666049168939</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.386796456454148</v>
+        <v>9.438467218322295</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.384469798923568</v>
+        <v>7.820518493740394</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.58302352618438</v>
+        <v>15.3774707151289</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4816113894478098</v>
+        <v>0.4864204190699664</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.308065622321708</v>
+        <v>1.294627379501852</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.502543629767593</v>
+        <v>1.595536896588044</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.227398222838353</v>
+        <v>1.242797024182156</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.283102980900135</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9.959038915736778</v>
+        <v>9.959038915736787</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08580635569321794</v>
@@ -949,7 +949,7 @@
         <v>0.6146038288691346</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.5627608064428206</v>
+        <v>0.5627608064428211</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.888506101014416</v>
+        <v>-4.163924295980351</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.156231289103948</v>
+        <v>3.349147349492731</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4196154046272709</v>
+        <v>0.6087638262933691</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.468587622764967</v>
+        <v>6.520353940405134</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2199120895992773</v>
+        <v>-0.2299002787244078</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2931010189129512</v>
+        <v>0.3176617968725858</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03116403089544991</v>
+        <v>0.05959118644562367</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3332053549911566</v>
+        <v>0.322154411529606</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.728641753826234</v>
+        <v>6.851097894875538</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.42450020723919</v>
+        <v>11.86826938540687</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.00435267701703</v>
+        <v>8.430451294254604</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13.71793170617475</v>
+        <v>13.49878353043919</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5194811726156532</v>
+        <v>0.4874421939305409</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.755848938690657</v>
+        <v>1.760278464993689</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.490132409044128</v>
+        <v>1.550497083475204</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8838214677583496</v>
+        <v>0.8614106752307147</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>5.689317885984126</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11.79549332294523</v>
+        <v>11.79549332294522</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1950089983827143</v>
@@ -1049,7 +1049,7 @@
         <v>0.695835178439087</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.6273506837095104</v>
+        <v>0.6273506837095099</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.049852790078236</v>
+        <v>1.274612293721556</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.376235117861567</v>
+        <v>7.138691055432836</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.271502319138372</v>
+        <v>3.998978729946587</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9.827509932257279</v>
+        <v>9.928551157695338</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.06233940728449951</v>
+        <v>0.0722416714746688</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7497481393470525</v>
+        <v>0.7469540952620031</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4828713199585062</v>
+        <v>0.4566561854535166</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.4906435454442789</v>
+        <v>0.4941423759889733</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.867088796588589</v>
+        <v>5.156478735028152</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.76735236565464</v>
+        <v>10.61439530557124</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.268942079183466</v>
+        <v>7.279808365270088</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.57989961441636</v>
+        <v>13.56049874771863</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.320359385652738</v>
+        <v>0.3399952630393202</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.283971515773672</v>
+        <v>1.285509480285656</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9680473647045967</v>
+        <v>0.9577243834407173</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7567779179113662</v>
+        <v>0.7562376589918354</v>
       </c>
     </row>
     <row r="19">
